--- a/data_95.xlsx
+++ b/data_95.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3909530701215286</v>
+        <v>0.3798876346865592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.43329679697966145</v>
+        <v>0.1743322863284443</v>
       </c>
       <c r="D2" t="n">
-        <v>3.480577885209961</v>
+        <v>3.4515548089320034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.037574573384826074</v>
+        <v>0.037250517231298484</v>
       </c>
       <c r="F2" t="n">
         <v>0.04339546009540307</v>
@@ -129,16 +129,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7754956112368014</v>
+        <v>0.8174150386480517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22501522348069664</v>
+        <v>0.2450061702741193</v>
       </c>
       <c r="D3" t="n">
-        <v>6.813704264992422</v>
+        <v>6.8958707049161525</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07607575676513643</v>
+        <v>0.07705819163570807</v>
       </c>
       <c r="F3" t="n">
         <v>0.30313175388675156</v>
@@ -149,16 +149,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7179046223783021</v>
+        <v>0.7489306383443275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3416879795396419</v>
+        <v>0.5806615433974364</v>
       </c>
       <c r="D4" t="n">
-        <v>8.034787567721699</v>
+        <v>8.002161165456293</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09084878844961053</v>
+        <v>0.09044918623005703</v>
       </c>
       <c r="F4" t="n">
         <v>0.6534727860178455</v>

--- a/data_95.xlsx
+++ b/data_95.xlsx
@@ -118,7 +118,7 @@
         <v>3.4515548089320034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.037250517231298484</v>
+        <v>0.13307626337643616</v>
       </c>
       <c r="F2" t="n">
         <v>0.04339546009540307</v>
@@ -138,7 +138,7 @@
         <v>6.8958707049161525</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07705819163570807</v>
+        <v>0.2752878877292282</v>
       </c>
       <c r="F3" t="n">
         <v>0.30313175388675156</v>
@@ -158,7 +158,7 @@
         <v>8.002161165456293</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09044918623005703</v>
+        <v>0.3231267811449881</v>
       </c>
       <c r="F4" t="n">
         <v>0.6534727860178455</v>
